--- a/Iteration Log/Paul_Kenny_X00107570_Iteration_Features_Log.xlsx
+++ b/Iteration Log/Paul_Kenny_X00107570_Iteration_Features_Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\x00107570-4th-Year-ITT-IBM-Project\Iteration Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\x00107570-4th-Year-ITT-IBM-Project_OLD\Iteration Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Iteration #1</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Iteration #2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Iteration #3</t>
   </si>
   <si>
@@ -64,6 +61,75 @@
   </si>
   <si>
     <t xml:space="preserve">Installed and setup Gradle + Docker on 2 VM's. Created a Gradle "Hello World" Plugin. Had issues creating Gradle Plugin to Scan Docker Image for JAR files. May not be feasible so instead may move to scan Docker containers instead of images. </t>
+  </si>
+  <si>
+    <t>Parse jar files names from selected Docker image</t>
+  </si>
+  <si>
+    <t>7th February 2017</t>
+  </si>
+  <si>
+    <t>Jar files parsed from Docker image.</t>
+  </si>
+  <si>
+    <t>Automatically creating Docker tarball from Docker image.</t>
+  </si>
+  <si>
+    <t>Groovy code to 1. Create Docker tarball from Docker image. 2. Untar tarball. 3. Iterate through inner layer tars to locate jars. 4. Parse jar names from layer tarball.</t>
+  </si>
+  <si>
+    <t>1st March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parse all jar file, and nested jar file names, from Docker image tarball. </t>
+  </si>
+  <si>
+    <t>All jar files names parsed from Docker image tarball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker image scan classes complete. The user will pass the image name and the location of temporary directories, created during the image scan process, into the program. The process of 1. locating the chosen docker image 2. creating a tarball from it 3. unarchiving the tarball 4.scanning the inner tarballs and jar archive files to parse all the jar file names from the image and 5. deleting all temporary directories, is fully automated by the DockerImageScan class. </t>
+  </si>
+  <si>
+    <t>22nd March 2017</t>
+  </si>
+  <si>
+    <t>AWS RDS Vulnerabilities Database. Connect application to vulnerabilities database.</t>
+  </si>
+  <si>
+    <t>1. AWS RDS MySql third party jar vulnerabilities database created and populated with selected jar vulnerabilities. 2. Docker image scan application connected and querying the vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Adds functionality to the Docker Image Scan application. In addition to the previous iteration, the application now parses third party jar names from the jar names returned from the scan and queries these jar names against the newly created vulnerabilities database. At the moment it displays the results set in the IDE console. This will be addressed in the next iteration.</t>
+  </si>
+  <si>
+    <t>Iteration #5</t>
+  </si>
+  <si>
+    <t>5th April 2017</t>
+  </si>
+  <si>
+    <t>Dynamic HTML markup for vulnerability scan report. Create Gradle plugin.</t>
+  </si>
+  <si>
+    <t>1. Functionality was added to the applictaion to dynamically create a HTML vulnerability report form the queries made to the AWS RDS MySQL database.  2. The Docker Image Security Vulnerabilities Scan Gradle plugin was created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The newly created Gradle Vulnerability ScanPlugin allows the user to choose a Docker Image to run a scan on. The image is scanned to identify jar files in the image. These are then crossed referenced with the vulnerabilities database and the results are then rendered into HTML markup and output to a local HTML page. </t>
+  </si>
+  <si>
+    <t>Iteration #6</t>
+  </si>
+  <si>
+    <t>26th April 2017</t>
+  </si>
+  <si>
+    <t>1. Functionality was added to enable the passing of Docker image names as an CLI argument to the Gradle Plugin.  2. The security vulnerabilities database was populated with references to third party JAR files and their associated vulnerabilities. 3. A suite of unit tests, UATs, scalibility tests and code coverage tests was written.</t>
+  </si>
+  <si>
+    <t>The passing of Docker image names as an argument was the final critical step in the creation of the Docker Image Security Vulnerabilities plugin. This essentially allows the user of the plugin to pass in a Docker image that exists on their system to the plugin and have the plugin scan that image for security vulnerabilities. If the plugin finds JAR files within the file system of the image, it will cross reference them with the, now populated, security vulnerabilities database. The creation of a test suite enabled the developer of the project to thoroughly test the plugin and to be assured that the plugin performs as it is supposed to do.</t>
+  </si>
+  <si>
+    <t>Enable the passing of Docker image names as an CLI argument to the Gradle Plugin. Populate the security vulnerabilities database with sample JAR's and their associated security vulnerabilities. Complete comprehensive suite of units tests.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -156,6 +222,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -472,22 +539,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="206.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -520,31 +587,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -555,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +641,9 @@
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -583,25 +652,31 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -610,14 +685,16 @@
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -628,7 +705,9 @@
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -637,16 +716,20 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -664,14 +747,16 @@
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -682,7 +767,9 @@
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
@@ -691,21 +778,25 @@
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -714,14 +805,104 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
